--- a/delta2/lib_p/pid-lolwin.xlsx
+++ b/delta2/lib_p/pid-lolwin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAC8096-1F68-4548-85C2-552F84BA941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773A2CD0-826B-9E4D-8CBB-3B3532FA06A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="-21100" windowWidth="38320" windowHeight="21100" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
   </bookViews>
@@ -3182,8 +3182,8 @@
   <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
